--- a/FibCalls/FibCalls.xlsx
+++ b/FibCalls/FibCalls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lucas\Files\Development\Projects\Java\DynamicFibonacci\FibCalls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Fib(n)</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Chamadas</t>
+  </si>
+  <si>
+    <t>O valor máximo de Fib(n) foi de 7500 A 8100 (+/-), acima de 7800 ficou instável e a heap padrão do Java começou a estourar.</t>
+  </si>
+  <si>
+    <t>SISTEMA</t>
   </si>
   <si>
     <r>
@@ -44,9 +50,8 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">MEMOIZATION </t>
     </r>
@@ -55,19 +60,54 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(MEMORIZAÇÃO)</t>
     </r>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Asrock H110M-HG4</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Intel Core I3-7100 @ 3.9 GHz</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Adata XPG 8GB @ 2400 MHz</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Corsair CX500 @ 500W</t>
+  </si>
+  <si>
+    <t>Gigabyte NVIDIA GeForce GTX 1060 3GB WINDFORCE @ 1949MHz</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro x64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +119,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +171,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,22 +207,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -193,13 +335,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Chamadas por Fib(n)</a:t>
             </a:r>
           </a:p>
@@ -225,9 +370,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pt-BR"/>
@@ -427,9 +572,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -486,9 +631,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
@@ -1423,140 +1568,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3B06A5-1FFC-4951-AC23-B693BFE18659}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>30</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>40</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>50</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>60</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>70</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>80</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>90</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>100</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <f>SUM(A2:A11)</f>
         <v>550</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <f>SUM(B2:B11)</f>
         <v>1090</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="10"/>
+    </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="4:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D24:M24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
